--- a/data/trans_bre/P1804_2016_2023-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1804_2016_2023-Estudios-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>3.04050763242056</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>2.858782222086573</v>
+        <v>2.858782222086575</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.3497983904549318</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.5129811330945393</v>
+        <v>0.5129811330945395</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.03221181224904587</v>
+        <v>-0.04895555197143714</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2577869902066117</v>
+        <v>0.4441010788953569</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.00892242101356115</v>
+        <v>-0.01064248997597662</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.03401434778335052</v>
+        <v>0.06004027646667079</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.808437173875249</v>
+        <v>5.936021310734443</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.102218774005211</v>
+        <v>5.059797919298538</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.8011621906116674</v>
+        <v>0.8176035895855424</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.207814347071645</v>
+        <v>1.222638786437515</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>3.03317757858018</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.048025432811863</v>
+        <v>2.048025432811862</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.5731491369562371</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.3813888145127148</v>
+        <v>0.3813888145127146</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.45445571047478</v>
+        <v>1.55300621997085</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2491835222096744</v>
+        <v>0.5273360966494938</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2398014592220134</v>
+        <v>0.2502581061208662</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04115973131625611</v>
+        <v>0.08124675150400422</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.75171866813622</v>
+        <v>4.54274761134491</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.648444532812543</v>
+        <v>3.68294941841447</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.011952452086383</v>
+        <v>0.9279150189466049</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7841382795420236</v>
+        <v>0.8288026659202283</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>5.351416443089994</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.526846358182934</v>
+        <v>2.526846358182935</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.7654184670002958</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.2701963477616517</v>
+        <v>0.2701963477616519</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.566664161762617</v>
+        <v>1.616780249833145</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.273634239479605</v>
+        <v>-1.1758055971773</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.1725548803021609</v>
+        <v>0.1800576360801756</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1035148237389109</v>
+        <v>-0.1053148125655765</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.095497614381868</v>
+        <v>8.83843361958407</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.222214815811828</v>
+        <v>5.681751060443816</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1.675173345335974</v>
+        <v>1.634011588366136</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.6933462460414486</v>
+        <v>0.7868094298259084</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>3.582828699304309</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>2.314478922286957</v>
+        <v>2.314478922286956</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.5663088142486539</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.3728166934526986</v>
+        <v>0.3728166934526985</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.174357186003908</v>
+        <v>2.359729617966844</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9200902381868575</v>
+        <v>1.034625174297426</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3171854920320265</v>
+        <v>0.33877819875069</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1232033745877155</v>
+        <v>0.1462879489005132</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.934597354049531</v>
+        <v>5.15966526294271</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.499875301592217</v>
+        <v>3.614771493804572</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8766223171232725</v>
+        <v>0.8955346898042064</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6429673756162652</v>
+        <v>0.6713942666942088</v>
       </c>
     </row>
     <row r="16">
